--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Parameter distribution.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Parameter distribution.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="306">
   <si>
     <t/>
   </si>
@@ -29,895 +29,907 @@
     <t>Amoroso 1</t>
   </si>
   <si>
+    <t>Parameter distribution_81</t>
+  </si>
+  <si>
+    <t>Arcsine 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_120</t>
+  </si>
+  <si>
+    <t>Arcsine 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_140</t>
+  </si>
+  <si>
+    <t>Asymmetric Laplace 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_30</t>
+  </si>
+  <si>
+    <t>Benford 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_63</t>
+  </si>
+  <si>
+    <t>Bernoulli 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_129</t>
+  </si>
+  <si>
+    <t>Bernoulli 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_99</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_103</t>
+  </si>
+  <si>
+    <t>Beta Pascal</t>
+  </si>
+  <si>
+    <t>Parameter distribution_143</t>
+  </si>
+  <si>
+    <t>Beta-binomial 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_56</t>
+  </si>
+  <si>
+    <t>Binomial 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_72</t>
+  </si>
+  <si>
+    <t>Binomial distribution with logit parameterisation</t>
+  </si>
+  <si>
+    <t>Parameter distribution_126</t>
+  </si>
+  <si>
+    <t>Birnbaum-Saunders 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_6</t>
+  </si>
+  <si>
+    <t>Borel 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_128</t>
+  </si>
+  <si>
+    <t>Breit-Wigner</t>
+  </si>
+  <si>
+    <t>Parameter distribution_78</t>
+  </si>
+  <si>
+    <t>Burr 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_111</t>
+  </si>
+  <si>
+    <t>Categorical Nonordered 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_55</t>
+  </si>
+  <si>
+    <t>Categorical Ordered 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_97</t>
+  </si>
+  <si>
+    <t>Chi 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_31</t>
+  </si>
+  <si>
+    <t>Chisquare</t>
+  </si>
+  <si>
+    <t>Parameter distribution_4</t>
+  </si>
+  <si>
+    <t>Cholesky parameterization</t>
+  </si>
+  <si>
+    <t>Parameter distribution_105</t>
+  </si>
+  <si>
+    <t>Conway-Maxwell-Poisson 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_2</t>
+  </si>
+  <si>
+    <t>Dagum 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_41</t>
+  </si>
+  <si>
+    <t>Dirichlet</t>
+  </si>
+  <si>
+    <t>Parameter distribution_109</t>
+  </si>
+  <si>
+    <t>Discrete distribution</t>
+  </si>
+  <si>
+    <t>Parameter distribution_20</t>
+  </si>
+  <si>
+    <t>Double Poisson 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_14</t>
+  </si>
+  <si>
+    <t>Empirical distribution</t>
+  </si>
+  <si>
+    <t>Epanechnikov 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_92</t>
+  </si>
+  <si>
+    <t>Erlang 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_116</t>
+  </si>
+  <si>
+    <t>Exponential 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_146</t>
+  </si>
+  <si>
+    <t>Exponentially modified Gaussian 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_150</t>
+  </si>
+  <si>
+    <t>Fisher-Snedecor</t>
+  </si>
+  <si>
+    <t>Parameter distribution_147</t>
+  </si>
+  <si>
+    <t>Folded Normal 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_144</t>
+  </si>
+  <si>
+    <t>Frechet 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_79</t>
+  </si>
+  <si>
+    <t>Galton</t>
+  </si>
+  <si>
+    <t>Parameter distribution_22</t>
+  </si>
+  <si>
+    <t>Parameter distribution_80</t>
+  </si>
+  <si>
+    <t>Parameter distribution_142</t>
+  </si>
+  <si>
+    <t>Gamma 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_38</t>
+  </si>
+  <si>
+    <t>Gamma 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_21</t>
+  </si>
+  <si>
+    <t>Gaussian- inverse-gamma</t>
+  </si>
+  <si>
+    <t>Parameter distribution_125</t>
+  </si>
+  <si>
+    <t>Generalized Gamma 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_121</t>
+  </si>
+  <si>
+    <t>Generalized Gamma 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_89</t>
+  </si>
+  <si>
+    <t>Generalized Gamma 3</t>
+  </si>
+  <si>
+    <t>Parameter distribution_84</t>
+  </si>
+  <si>
+    <t>Generalized Negative Binomial 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_17</t>
+  </si>
+  <si>
+    <t>Generalized Poisson 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_135</t>
+  </si>
+  <si>
+    <t>Generalized Poisson 3</t>
+  </si>
+  <si>
+    <t>Parameter distribution_93</t>
+  </si>
+  <si>
+    <t>GeneralizedPoisson2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_112</t>
+  </si>
+  <si>
+    <t>Geometric 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_39</t>
+  </si>
+  <si>
+    <t>Gompertz 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_114</t>
+  </si>
+  <si>
+    <t>Gumbel 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_149</t>
+  </si>
+  <si>
+    <t>Half Cauchy 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_7</t>
+  </si>
+  <si>
+    <t>Half-normal 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_19</t>
+  </si>
+  <si>
+    <t>Half-normal 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_28</t>
+  </si>
+  <si>
+    <t>Hyperbolic secant 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_40</t>
+  </si>
+  <si>
+    <t>Hypergeometric 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_88</t>
+  </si>
+  <si>
+    <t>Inverse Binomial 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_32</t>
+  </si>
+  <si>
+    <t>Inverse Chi-Square</t>
+  </si>
+  <si>
+    <t>Parameter distribution_42</t>
+  </si>
+  <si>
+    <t>Inverse Weibull</t>
+  </si>
+  <si>
+    <t>Parameter distribution_130</t>
+  </si>
+  <si>
+    <t>Inverse-Gamma 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_98</t>
+  </si>
+  <si>
+    <t>Inverse-Wishart 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_27</t>
+  </si>
+  <si>
+    <t>Johnson SB 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_107</t>
+  </si>
+  <si>
+    <t>Johnson SL 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_145</t>
+  </si>
+  <si>
+    <t>Johnson SN 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_124</t>
+  </si>
+  <si>
+    <t>Johnson SU 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_15</t>
+  </si>
+  <si>
+    <t>Kumaraswamy 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_34</t>
+  </si>
+  <si>
+    <t>Laplace 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_104</t>
+  </si>
+  <si>
+    <t>Laplace 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_65</t>
+  </si>
+  <si>
+    <t>Levy 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_137</t>
+  </si>
+  <si>
+    <t>LKJ Correlation 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_13</t>
+  </si>
+  <si>
+    <t>LKJ Correlation 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_51</t>
+  </si>
+  <si>
+    <t>Log-Logistic 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_123</t>
+  </si>
+  <si>
+    <t>Log-Logistic 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_118</t>
+  </si>
+  <si>
+    <t>Log-Normal 3</t>
+  </si>
+  <si>
+    <t>Parameter distribution_18</t>
+  </si>
+  <si>
+    <t>Log-Normal 4</t>
+  </si>
+  <si>
+    <t>Parameter distribution_46</t>
+  </si>
+  <si>
+    <t>Log-Normal 5</t>
+  </si>
+  <si>
+    <t>Parameter distribution_76</t>
+  </si>
+  <si>
+    <t>Log-Normal 6</t>
+  </si>
+  <si>
+    <t>Parameter distribution_95</t>
+  </si>
+  <si>
+    <t>Log-Uniform 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_131</t>
+  </si>
+  <si>
+    <t>Logistic 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_74</t>
+  </si>
+  <si>
+    <t>Logistic 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_108</t>
+  </si>
+  <si>
+    <t>Logit Normal 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_57</t>
+  </si>
+  <si>
+    <t>Lomax 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_110</t>
+  </si>
+  <si>
+    <t>Makeham 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_106</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>Parameter distribution_85</t>
+  </si>
+  <si>
+    <t>Mixture Distribution 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_26</t>
+  </si>
+  <si>
+    <t>Multinomial 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_23</t>
+  </si>
+  <si>
+    <t>Multivariate Gaussian 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_64</t>
+  </si>
+  <si>
+    <t>Multivariate Gaussian 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_60</t>
+  </si>
+  <si>
+    <t>Multivariate Gaussian Process Distribution 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_67</t>
+  </si>
+  <si>
+    <t>Multivariate Normal 3</t>
+  </si>
+  <si>
+    <t>Parameter distribution_87</t>
+  </si>
+  <si>
+    <t>Multivariate Student T 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_70</t>
+  </si>
+  <si>
+    <t>Multivariate Student T 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_8</t>
+  </si>
+  <si>
+    <t>Muth 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_48</t>
+  </si>
+  <si>
+    <t>Nakagami 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_141</t>
+  </si>
+  <si>
+    <t>Negative Binomial 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_83</t>
+  </si>
+  <si>
+    <t>Negative Binomial 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_91</t>
+  </si>
+  <si>
+    <t>Negative Binomial 3</t>
+  </si>
+  <si>
+    <t>Parameter distribution_90</t>
+  </si>
+  <si>
+    <t>Negative Binomial 4</t>
+  </si>
+  <si>
+    <t>Parameter distribution_133</t>
+  </si>
+  <si>
+    <t>Negative Binomial 5</t>
+  </si>
+  <si>
+    <t>Parameter distribution_148</t>
+  </si>
+  <si>
+    <t>Negative Binomial 6</t>
+  </si>
+  <si>
+    <t>Parameter distribution_100</t>
+  </si>
+  <si>
+    <t>Negative exponential</t>
+  </si>
+  <si>
+    <t>Parameter distribution_101</t>
+  </si>
+  <si>
+    <t>Noncentral Beta 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_68</t>
+  </si>
+  <si>
+    <t>Noncentral chi-squared 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_29</t>
+  </si>
+  <si>
+    <t>Noncentral F 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_86</t>
+  </si>
+  <si>
+    <t>NoncentralT</t>
+  </si>
+  <si>
+    <t>Parameter distribution_122</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Parameter distribution_43</t>
+  </si>
+  <si>
+    <t>Parameter distribution_47</t>
+  </si>
+  <si>
+    <t>Normal 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_24</t>
+  </si>
+  <si>
+    <t>Ordered Logistic 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_35</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Parameter distribution_102</t>
+  </si>
+  <si>
+    <t>Pareto Type I</t>
+  </si>
+  <si>
+    <t>Parameter distribution_49</t>
+  </si>
+  <si>
+    <t>Pareto Type II</t>
+  </si>
+  <si>
+    <t>Parameter distribution_9</t>
+  </si>
+  <si>
+    <t>Pert distribution</t>
+  </si>
+  <si>
+    <t>Parameter distribution_69</t>
+  </si>
+  <si>
+    <t>Poisson 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_58</t>
+  </si>
+  <si>
+    <t>Poisson 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_113</t>
+  </si>
+  <si>
+    <t>Power 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_75</t>
+  </si>
+  <si>
+    <t>Power-Normal 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_139</t>
+  </si>
+  <si>
+    <t>Rayleigh 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_62</t>
+  </si>
+  <si>
+    <t>Rectangular Continuous</t>
+  </si>
+  <si>
+    <t>Parameter distribution_138</t>
+  </si>
+  <si>
+    <t>Rectangular Discrete 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_36</t>
+  </si>
+  <si>
+    <t>Rician</t>
+  </si>
+  <si>
+    <t>Parameter distribution_37</t>
+  </si>
+  <si>
+    <t>Scaled Inverse Chi-Square</t>
+  </si>
+  <si>
+    <t>Parameter distribution_117</t>
+  </si>
+  <si>
+    <t>SHASH</t>
+  </si>
+  <si>
+    <t>Parameter distribution_53</t>
+  </si>
+  <si>
+    <t>Parameter distribution_71</t>
+  </si>
+  <si>
+    <t>Skew Normal</t>
+  </si>
+  <si>
+    <t>Parameter distribution_12</t>
+  </si>
+  <si>
+    <t>Standard Cauchy 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_59</t>
+  </si>
+  <si>
+    <t>Standard Gaussian</t>
+  </si>
+  <si>
+    <t>Parameter distribution_44</t>
+  </si>
+  <si>
+    <t>Standard Logistic 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_73</t>
+  </si>
+  <si>
+    <t>Standard Power 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_3</t>
+  </si>
+  <si>
+    <t>Standard Triangular 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_25</t>
+  </si>
+  <si>
+    <t>Standard Uniform 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_132</t>
+  </si>
+  <si>
+    <t>STSP</t>
+  </si>
+  <si>
+    <t>Parameter distribution_136</t>
+  </si>
+  <si>
+    <t>Students t-distribution 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_52</t>
+  </si>
+  <si>
+    <t>t Location-Scale</t>
+  </si>
+  <si>
+    <t>Parameter distribution_45</t>
+  </si>
+  <si>
+    <t>t-distribution</t>
+  </si>
+  <si>
+    <t>Parameter distribution_82</t>
+  </si>
+  <si>
+    <t>Trapezoidal 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_54</t>
+  </si>
+  <si>
+    <t>Triangular 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_96</t>
+  </si>
+  <si>
+    <t>Truncated Normal 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_66</t>
+  </si>
+  <si>
+    <t>TSP</t>
+  </si>
+  <si>
+    <t>Parameter distribution_94</t>
+  </si>
+  <si>
+    <t>Uniform Discrete 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_61</t>
+  </si>
+  <si>
+    <t>Von Mises 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_50</t>
+  </si>
+  <si>
+    <t>Wald</t>
+  </si>
+  <si>
     <t>Parameter distribution_1</t>
   </si>
   <si>
-    <t>Arcsine 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_2</t>
-  </si>
-  <si>
-    <t>Arcsine 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_3</t>
-  </si>
-  <si>
-    <t>Asymmetric Laplace 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_4</t>
-  </si>
-  <si>
-    <t>Benford 1</t>
+    <t>Weibull 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_134</t>
+  </si>
+  <si>
+    <t>Weibull 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_151</t>
+  </si>
+  <si>
+    <t>Weibull Discrete 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_10</t>
+  </si>
+  <si>
+    <t>Wiener Diffusion Model 1</t>
+  </si>
+  <si>
+    <t>Wigner Semicircle 1</t>
+  </si>
+  <si>
+    <t>Parameter distribution_11</t>
+  </si>
+  <si>
+    <t>Wishart 1</t>
   </si>
   <si>
     <t>Parameter distribution_5</t>
   </si>
   <si>
-    <t>Bernoulli 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_6</t>
-  </si>
-  <si>
-    <t>Bernoulli 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_7</t>
-  </si>
-  <si>
-    <t>Beta 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_8</t>
-  </si>
-  <si>
-    <t>Beta Pascal</t>
-  </si>
-  <si>
-    <t>Parameter distribution_9</t>
-  </si>
-  <si>
-    <t>Beta-binomial 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_10</t>
-  </si>
-  <si>
-    <t>Binomial 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_11</t>
-  </si>
-  <si>
-    <t>Binomial distribution with logit parameterisation</t>
-  </si>
-  <si>
-    <t>Parameter distribution_12</t>
-  </si>
-  <si>
-    <t>Birnbaum-Saunders 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_13</t>
-  </si>
-  <si>
-    <t>Borel 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_14</t>
-  </si>
-  <si>
-    <t>Breit-Wigner</t>
-  </si>
-  <si>
-    <t>Parameter distribution_15</t>
-  </si>
-  <si>
-    <t>Burr 1</t>
+    <t>Wishart 2</t>
+  </si>
+  <si>
+    <t>Parameter distribution_119</t>
+  </si>
+  <si>
+    <t>YuleSimon1</t>
   </si>
   <si>
     <t>Parameter distribution_16</t>
   </si>
   <si>
-    <t>Categorical Nonordered 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_17</t>
-  </si>
-  <si>
-    <t>Categorical Ordered 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_18</t>
-  </si>
-  <si>
-    <t>Chi 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_19</t>
-  </si>
-  <si>
-    <t>Chisquare</t>
-  </si>
-  <si>
-    <t>Parameter distribution_20</t>
-  </si>
-  <si>
-    <t>Cholesky parameterization</t>
-  </si>
-  <si>
-    <t>Parameter distribution_21</t>
-  </si>
-  <si>
-    <t>Conway-Maxwell-Poisson 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_22</t>
-  </si>
-  <si>
-    <t>Dagum 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_23</t>
-  </si>
-  <si>
-    <t>Dirichlet</t>
-  </si>
-  <si>
-    <t>Parameter distribution_24</t>
-  </si>
-  <si>
-    <t>Double Poisson 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_25</t>
-  </si>
-  <si>
-    <t>Epanechnikov 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_26</t>
-  </si>
-  <si>
-    <t>Erlang 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_27</t>
-  </si>
-  <si>
-    <t>Exponential 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_28</t>
-  </si>
-  <si>
-    <t>Exponentially modified Gaussian 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_29</t>
-  </si>
-  <si>
-    <t>Fisher-Snedecor</t>
-  </si>
-  <si>
-    <t>Parameter distribution_30</t>
-  </si>
-  <si>
-    <t>Folded Normal 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_31</t>
-  </si>
-  <si>
-    <t>Frechet 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_32</t>
-  </si>
-  <si>
-    <t>Galton</t>
+    <t>Zero-Inflated Generalized Poisson 1</t>
   </si>
   <si>
     <t>Parameter distribution_33</t>
   </si>
   <si>
-    <t>Parameter distribution_34</t>
-  </si>
-  <si>
-    <t>Parameter distribution_35</t>
-  </si>
-  <si>
-    <t>Gamma 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_36</t>
-  </si>
-  <si>
-    <t>Gamma 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_37</t>
-  </si>
-  <si>
-    <t>Gaussian- inverse-gamma</t>
-  </si>
-  <si>
-    <t>Parameter distribution_38</t>
-  </si>
-  <si>
-    <t>Generalized Gamma 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_39</t>
-  </si>
-  <si>
-    <t>Generalized Gamma 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_40</t>
-  </si>
-  <si>
-    <t>Generalized Gamma 3</t>
-  </si>
-  <si>
-    <t>Parameter distribution_41</t>
-  </si>
-  <si>
-    <t>Generalized Negative Binomial 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_42</t>
-  </si>
-  <si>
-    <t>Generalized Poisson 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_43</t>
-  </si>
-  <si>
-    <t>Generalized Poisson 3</t>
-  </si>
-  <si>
-    <t>Parameter distribution_44</t>
-  </si>
-  <si>
-    <t>GeneralizedPoisson2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_45</t>
-  </si>
-  <si>
-    <t>Geometric 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_46</t>
-  </si>
-  <si>
-    <t>Gompertz 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_47</t>
-  </si>
-  <si>
-    <t>Gumbel 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_48</t>
-  </si>
-  <si>
-    <t>Half Cauchy 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_49</t>
-  </si>
-  <si>
-    <t>Half-normal 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_50</t>
-  </si>
-  <si>
-    <t>Half-normal 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_51</t>
-  </si>
-  <si>
-    <t>Hyperbolic secant 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_52</t>
-  </si>
-  <si>
-    <t>Hypergeometric 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_53</t>
-  </si>
-  <si>
-    <t>Inverse Binomial 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_54</t>
-  </si>
-  <si>
-    <t>Inverse Chi-Square</t>
-  </si>
-  <si>
-    <t>Parameter distribution_55</t>
-  </si>
-  <si>
-    <t>Inverse Weibull</t>
-  </si>
-  <si>
-    <t>Parameter distribution_56</t>
-  </si>
-  <si>
-    <t>Inverse-Gamma 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_57</t>
-  </si>
-  <si>
-    <t>Inverse-Wishart 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_58</t>
-  </si>
-  <si>
-    <t>Johnson SB 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_59</t>
-  </si>
-  <si>
-    <t>Johnson SL 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_60</t>
-  </si>
-  <si>
-    <t>Johnson SN 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_61</t>
-  </si>
-  <si>
-    <t>Johnson SU 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_62</t>
-  </si>
-  <si>
-    <t>Kumaraswamy 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_63</t>
-  </si>
-  <si>
-    <t>Laplace 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_64</t>
-  </si>
-  <si>
-    <t>Laplace 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_65</t>
-  </si>
-  <si>
-    <t>Levy 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_66</t>
-  </si>
-  <si>
-    <t>LKJ Correlation 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_67</t>
-  </si>
-  <si>
-    <t>LKJ Correlation 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_68</t>
-  </si>
-  <si>
-    <t>Log-Logistic 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_69</t>
-  </si>
-  <si>
-    <t>Log-Logistic 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_70</t>
-  </si>
-  <si>
-    <t>Log-Normal 3</t>
-  </si>
-  <si>
-    <t>Parameter distribution_71</t>
-  </si>
-  <si>
-    <t>Log-Normal 4</t>
-  </si>
-  <si>
-    <t>Parameter distribution_72</t>
-  </si>
-  <si>
-    <t>Log-Normal 5</t>
-  </si>
-  <si>
-    <t>Parameter distribution_73</t>
-  </si>
-  <si>
-    <t>Log-Normal 6</t>
-  </si>
-  <si>
-    <t>Parameter distribution_74</t>
-  </si>
-  <si>
-    <t>Log-Uniform 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_75</t>
-  </si>
-  <si>
-    <t>Logistic 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_76</t>
-  </si>
-  <si>
-    <t>Logistic 2</t>
+    <t>Zero-Inflated Negative Binomial 1</t>
   </si>
   <si>
     <t>Parameter distribution_77</t>
   </si>
   <si>
-    <t>Logit Normal 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_78</t>
-  </si>
-  <si>
-    <t>Lomax 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_79</t>
-  </si>
-  <si>
-    <t>Makeham 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_80</t>
-  </si>
-  <si>
-    <t>Maxwell</t>
-  </si>
-  <si>
-    <t>Parameter distribution_81</t>
-  </si>
-  <si>
-    <t>Mixture Distribution 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_82</t>
-  </si>
-  <si>
-    <t>Multinomial 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_83</t>
-  </si>
-  <si>
-    <t>Multivariate Gaussian 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_84</t>
-  </si>
-  <si>
-    <t>Multivariate Gaussian 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_85</t>
-  </si>
-  <si>
-    <t>Multivariate Gaussian Process Distribution 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_86</t>
-  </si>
-  <si>
-    <t>Multivariate Normal 3</t>
-  </si>
-  <si>
-    <t>Parameter distribution_87</t>
-  </si>
-  <si>
-    <t>Multivariate Student T 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_88</t>
-  </si>
-  <si>
-    <t>Multivariate Student T 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_89</t>
-  </si>
-  <si>
-    <t>Muth 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_90</t>
-  </si>
-  <si>
-    <t>Nakagami 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_91</t>
-  </si>
-  <si>
-    <t>Negative Binomial 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_92</t>
-  </si>
-  <si>
-    <t>Negative Binomial 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_93</t>
-  </si>
-  <si>
-    <t>Negative Binomial 3</t>
-  </si>
-  <si>
-    <t>Parameter distribution_94</t>
-  </si>
-  <si>
-    <t>Negative Binomial 4</t>
-  </si>
-  <si>
-    <t>Parameter distribution_95</t>
-  </si>
-  <si>
-    <t>Negative Binomial 5</t>
-  </si>
-  <si>
-    <t>Parameter distribution_96</t>
-  </si>
-  <si>
-    <t>Negative Binomial 6</t>
-  </si>
-  <si>
-    <t>Parameter distribution_97</t>
-  </si>
-  <si>
-    <t>Negative exponential</t>
-  </si>
-  <si>
-    <t>Parameter distribution_98</t>
-  </si>
-  <si>
-    <t>Noncentral Beta 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_99</t>
-  </si>
-  <si>
-    <t>Noncentral chi-squared 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_100</t>
-  </si>
-  <si>
-    <t>Noncentral F 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_101</t>
-  </si>
-  <si>
-    <t>NoncentralT</t>
-  </si>
-  <si>
-    <t>Parameter distribution_102</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Parameter distribution_103</t>
-  </si>
-  <si>
-    <t>Parameter distribution_104</t>
-  </si>
-  <si>
-    <t>Normal 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_105</t>
-  </si>
-  <si>
-    <t>Ordered Logistic 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_106</t>
-  </si>
-  <si>
-    <t>Pareto Type I</t>
-  </si>
-  <si>
-    <t>Parameter distribution_107</t>
-  </si>
-  <si>
-    <t>Pareto Type II</t>
-  </si>
-  <si>
-    <t>Parameter distribution_108</t>
-  </si>
-  <si>
-    <t>Poisson 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_109</t>
-  </si>
-  <si>
-    <t>Poisson 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_110</t>
-  </si>
-  <si>
-    <t>Power 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_111</t>
-  </si>
-  <si>
-    <t>Power-Normal 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_112</t>
-  </si>
-  <si>
-    <t>Rayleigh 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_113</t>
-  </si>
-  <si>
-    <t>Rectangular Continuous</t>
-  </si>
-  <si>
-    <t>Parameter distribution_114</t>
-  </si>
-  <si>
-    <t>Rectangular Discrete 2</t>
+    <t>Zero-inflated Poisson 1</t>
+  </si>
+  <si>
+    <t>Zeta 1</t>
   </si>
   <si>
     <t>Parameter distribution_115</t>
   </si>
   <si>
-    <t>Rician</t>
-  </si>
-  <si>
-    <t>Parameter distribution_116</t>
-  </si>
-  <si>
-    <t>Scaled Inverse Chi-Square</t>
-  </si>
-  <si>
-    <t>Parameter distribution_117</t>
-  </si>
-  <si>
-    <t>SHASH</t>
-  </si>
-  <si>
-    <t>Parameter distribution_118</t>
-  </si>
-  <si>
-    <t>Parameter distribution_119</t>
-  </si>
-  <si>
-    <t>Skew Normal</t>
-  </si>
-  <si>
-    <t>Parameter distribution_120</t>
-  </si>
-  <si>
-    <t>Standard Cauchy 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_121</t>
-  </si>
-  <si>
-    <t>Standard Gaussian</t>
-  </si>
-  <si>
-    <t>Parameter distribution_122</t>
-  </si>
-  <si>
-    <t>Standard Logistic 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_123</t>
-  </si>
-  <si>
-    <t>Standard Power 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_124</t>
-  </si>
-  <si>
-    <t>Standard Triangular 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_125</t>
-  </si>
-  <si>
-    <t>Standard Uniform 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_126</t>
-  </si>
-  <si>
-    <t>STSP</t>
+    <t>Zipf 1</t>
   </si>
   <si>
     <t>Parameter distribution_127</t>
   </si>
   <si>
-    <t>Students t-distribution 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_128</t>
-  </si>
-  <si>
-    <t>t Location-Scale</t>
-  </si>
-  <si>
-    <t>Parameter distribution_129</t>
-  </si>
-  <si>
-    <t>t-distribution</t>
-  </si>
-  <si>
-    <t>Parameter distribution_130</t>
-  </si>
-  <si>
-    <t>Trapezoidal 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_131</t>
-  </si>
-  <si>
-    <t>Triangular 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_132</t>
-  </si>
-  <si>
-    <t>Truncated Normal 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_133</t>
-  </si>
-  <si>
-    <t>TSP</t>
-  </si>
-  <si>
-    <t>Parameter distribution_134</t>
-  </si>
-  <si>
-    <t>Uniform Discrete 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_135</t>
-  </si>
-  <si>
-    <t>Von Mises 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_136</t>
-  </si>
-  <si>
-    <t>Wald</t>
-  </si>
-  <si>
-    <t>Parameter distribution_137</t>
-  </si>
-  <si>
-    <t>Weibull 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_138</t>
-  </si>
-  <si>
-    <t>Weibull 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_139</t>
-  </si>
-  <si>
-    <t>Weibull Discrete 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_140</t>
-  </si>
-  <si>
-    <t>Wiener Diffusion Model 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_141</t>
-  </si>
-  <si>
-    <t>Wigner Semicircle 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_142</t>
-  </si>
-  <si>
-    <t>Wishart 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_143</t>
-  </si>
-  <si>
-    <t>Wishart 2</t>
-  </si>
-  <si>
-    <t>Parameter distribution_144</t>
-  </si>
-  <si>
-    <t>YuleSimon1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_145</t>
-  </si>
-  <si>
-    <t>Zero-Inflated Generalized Poisson 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_146</t>
-  </si>
-  <si>
-    <t>Zero-Inflated Negative Binomial 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_147</t>
-  </si>
-  <si>
-    <t>Zero-inflated Poisson 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_148</t>
-  </si>
-  <si>
-    <t>Zeta 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_149</t>
-  </si>
-  <si>
-    <t>Zipf 1</t>
-  </si>
-  <si>
-    <t>Parameter distribution_150</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Parameter distribution_151</t>
+    <t>CP: I already deteled this sheet, as it was agreed previously with Miguel in the RAKIP weekly call</t>
   </si>
 </sst>
 </file>
@@ -1269,19 +1281,15 @@
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28">
-        <f>0</f>
-      </c>
+      <c r="B28"/>
+      <c r="C28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
       </c>
       <c r="C29">
         <f>0</f>
@@ -1289,10 +1297,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
       </c>
       <c r="C30">
         <f>0</f>
@@ -1300,10 +1308,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
       </c>
       <c r="C31">
         <f>0</f>
@@ -1311,10 +1319,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
       </c>
       <c r="C32">
         <f>0</f>
@@ -1322,10 +1330,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
       </c>
       <c r="C33">
         <f>0</f>
@@ -1333,10 +1341,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
       </c>
       <c r="C34">
         <f>0</f>
@@ -1344,7 +1352,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
@@ -1355,10 +1363,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <f>0</f>
@@ -1366,7 +1374,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -1377,10 +1385,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
       </c>
       <c r="C38">
         <f>0</f>
@@ -1388,10 +1396,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
       </c>
       <c r="C39">
         <f>0</f>
@@ -1399,10 +1407,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
       </c>
       <c r="C40">
         <f>0</f>
@@ -1410,10 +1418,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
       </c>
       <c r="C41">
         <f>0</f>
@@ -1421,10 +1429,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
       </c>
       <c r="C42">
         <f>0</f>
@@ -1432,10 +1440,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
       </c>
       <c r="C43">
         <f>0</f>
@@ -1443,10 +1451,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
       </c>
       <c r="C44">
         <f>0</f>
@@ -1454,10 +1462,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
       </c>
       <c r="C45">
         <f>0</f>
@@ -1465,10 +1473,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
       </c>
       <c r="C46">
         <f>0</f>
@@ -1476,10 +1484,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
       </c>
       <c r="C47">
         <f>0</f>
@@ -1487,10 +1495,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
       </c>
       <c r="C48">
         <f>0</f>
@@ -1498,10 +1506,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
       </c>
       <c r="C49">
         <f>0</f>
@@ -1509,10 +1517,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
       </c>
       <c r="C50">
         <f>0</f>
@@ -1520,10 +1528,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>101</v>
       </c>
       <c r="C51">
         <f>0</f>
@@ -1531,10 +1539,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
       </c>
       <c r="C52">
         <f>0</f>
@@ -1542,10 +1550,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
       </c>
       <c r="C53">
         <f>0</f>
@@ -1553,10 +1561,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" t="s">
-        <v>107</v>
       </c>
       <c r="C54">
         <f>0</f>
@@ -1564,10 +1572,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" t="s">
-        <v>109</v>
       </c>
       <c r="C55">
         <f>0</f>
@@ -1575,10 +1583,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" t="s">
-        <v>111</v>
       </c>
       <c r="C56">
         <f>0</f>
@@ -1586,10 +1594,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>113</v>
       </c>
       <c r="C57">
         <f>0</f>
@@ -1597,10 +1605,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" t="s">
-        <v>115</v>
       </c>
       <c r="C58">
         <f>0</f>
@@ -1608,10 +1616,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" t="s">
-        <v>117</v>
       </c>
       <c r="C59">
         <f>0</f>
@@ -1619,10 +1627,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" t="s">
-        <v>119</v>
       </c>
       <c r="C60">
         <f>0</f>
@@ -1630,10 +1638,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" t="s">
-        <v>121</v>
       </c>
       <c r="C61">
         <f>0</f>
@@ -1641,10 +1649,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>123</v>
       </c>
       <c r="C62">
         <f>0</f>
@@ -1652,10 +1660,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
         <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>125</v>
       </c>
       <c r="C63">
         <f>0</f>
@@ -1663,10 +1671,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
       </c>
       <c r="C64">
         <f>0</f>
@@ -1674,10 +1682,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
       </c>
       <c r="C65">
         <f>0</f>
@@ -1685,10 +1693,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
       </c>
       <c r="C66">
         <f>0</f>
@@ -1696,10 +1704,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
         <v>132</v>
-      </c>
-      <c r="B67" t="s">
-        <v>133</v>
       </c>
       <c r="C67">
         <f>0</f>
@@ -1707,10 +1715,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
         <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>135</v>
       </c>
       <c r="C68">
         <f>0</f>
@@ -1718,10 +1726,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
         <v>136</v>
-      </c>
-      <c r="B69" t="s">
-        <v>137</v>
       </c>
       <c r="C69">
         <f>0</f>
@@ -1729,10 +1737,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
         <v>138</v>
-      </c>
-      <c r="B70" t="s">
-        <v>139</v>
       </c>
       <c r="C70">
         <f>0</f>
@@ -1740,10 +1748,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
         <v>140</v>
-      </c>
-      <c r="B71" t="s">
-        <v>141</v>
       </c>
       <c r="C71">
         <f>0</f>
@@ -1751,10 +1759,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
         <v>142</v>
-      </c>
-      <c r="B72" t="s">
-        <v>143</v>
       </c>
       <c r="C72">
         <f>0</f>
@@ -1762,10 +1770,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
         <v>144</v>
-      </c>
-      <c r="B73" t="s">
-        <v>145</v>
       </c>
       <c r="C73">
         <f>0</f>
@@ -1773,10 +1781,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
         <v>146</v>
-      </c>
-      <c r="B74" t="s">
-        <v>147</v>
       </c>
       <c r="C74">
         <f>0</f>
@@ -1784,10 +1792,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
         <v>148</v>
-      </c>
-      <c r="B75" t="s">
-        <v>149</v>
       </c>
       <c r="C75">
         <f>0</f>
@@ -1795,10 +1803,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
         <v>150</v>
-      </c>
-      <c r="B76" t="s">
-        <v>151</v>
       </c>
       <c r="C76">
         <f>0</f>
@@ -1806,10 +1814,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
         <v>152</v>
-      </c>
-      <c r="B77" t="s">
-        <v>153</v>
       </c>
       <c r="C77">
         <f>0</f>
@@ -1817,10 +1825,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
         <v>154</v>
-      </c>
-      <c r="B78" t="s">
-        <v>155</v>
       </c>
       <c r="C78">
         <f>0</f>
@@ -1828,10 +1836,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
         <v>156</v>
-      </c>
-      <c r="B79" t="s">
-        <v>157</v>
       </c>
       <c r="C79">
         <f>0</f>
@@ -1839,10 +1847,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
         <v>158</v>
-      </c>
-      <c r="B80" t="s">
-        <v>159</v>
       </c>
       <c r="C80">
         <f>0</f>
@@ -1850,10 +1858,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
         <v>160</v>
-      </c>
-      <c r="B81" t="s">
-        <v>161</v>
       </c>
       <c r="C81">
         <f>0</f>
@@ -1861,10 +1869,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
         <v>162</v>
-      </c>
-      <c r="B82" t="s">
-        <v>163</v>
       </c>
       <c r="C82">
         <f>0</f>
@@ -1872,10 +1880,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
         <v>164</v>
-      </c>
-      <c r="B83" t="s">
-        <v>165</v>
       </c>
       <c r="C83">
         <f>0</f>
@@ -1883,10 +1891,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
         <v>166</v>
-      </c>
-      <c r="B84" t="s">
-        <v>167</v>
       </c>
       <c r="C84">
         <f>0</f>
@@ -1894,10 +1902,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
         <v>168</v>
-      </c>
-      <c r="B85" t="s">
-        <v>169</v>
       </c>
       <c r="C85">
         <f>0</f>
@@ -1905,10 +1913,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
         <v>170</v>
-      </c>
-      <c r="B86" t="s">
-        <v>171</v>
       </c>
       <c r="C86">
         <f>0</f>
@@ -1916,10 +1924,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
         <v>172</v>
-      </c>
-      <c r="B87" t="s">
-        <v>173</v>
       </c>
       <c r="C87">
         <f>0</f>
@@ -1927,10 +1935,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
         <v>174</v>
-      </c>
-      <c r="B88" t="s">
-        <v>175</v>
       </c>
       <c r="C88">
         <f>0</f>
@@ -1938,10 +1946,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
         <v>176</v>
-      </c>
-      <c r="B89" t="s">
-        <v>177</v>
       </c>
       <c r="C89">
         <f>0</f>
@@ -1949,10 +1957,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
         <v>178</v>
-      </c>
-      <c r="B90" t="s">
-        <v>179</v>
       </c>
       <c r="C90">
         <f>0</f>
@@ -1960,10 +1968,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" t="s">
         <v>180</v>
-      </c>
-      <c r="B91" t="s">
-        <v>181</v>
       </c>
       <c r="C91">
         <f>0</f>
@@ -1971,10 +1979,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
         <v>182</v>
-      </c>
-      <c r="B92" t="s">
-        <v>183</v>
       </c>
       <c r="C92">
         <f>0</f>
@@ -1982,10 +1990,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
         <v>184</v>
-      </c>
-      <c r="B93" t="s">
-        <v>185</v>
       </c>
       <c r="C93">
         <f>0</f>
@@ -1993,10 +2001,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" t="s">
         <v>186</v>
-      </c>
-      <c r="B94" t="s">
-        <v>187</v>
       </c>
       <c r="C94">
         <f>0</f>
@@ -2004,10 +2012,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
         <v>188</v>
-      </c>
-      <c r="B95" t="s">
-        <v>189</v>
       </c>
       <c r="C95">
         <f>0</f>
@@ -2015,10 +2023,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" t="s">
         <v>190</v>
-      </c>
-      <c r="B96" t="s">
-        <v>191</v>
       </c>
       <c r="C96">
         <f>0</f>
@@ -2026,10 +2034,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
         <v>192</v>
-      </c>
-      <c r="B97" t="s">
-        <v>193</v>
       </c>
       <c r="C97">
         <f>0</f>
@@ -2037,10 +2045,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
         <v>194</v>
-      </c>
-      <c r="B98" t="s">
-        <v>195</v>
       </c>
       <c r="C98">
         <f>0</f>
@@ -2048,10 +2056,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" t="s">
         <v>196</v>
-      </c>
-      <c r="B99" t="s">
-        <v>197</v>
       </c>
       <c r="C99">
         <f>0</f>
@@ -2059,10 +2067,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" t="s">
         <v>198</v>
-      </c>
-      <c r="B100" t="s">
-        <v>199</v>
       </c>
       <c r="C100">
         <f>0</f>
@@ -2070,10 +2078,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
         <v>200</v>
-      </c>
-      <c r="B101" t="s">
-        <v>201</v>
       </c>
       <c r="C101">
         <f>0</f>
@@ -2081,10 +2089,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
         <v>202</v>
-      </c>
-      <c r="B102" t="s">
-        <v>203</v>
       </c>
       <c r="C102">
         <f>0</f>
@@ -2092,10 +2100,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
         <v>204</v>
-      </c>
-      <c r="B103" t="s">
-        <v>205</v>
       </c>
       <c r="C103">
         <f>0</f>
@@ -2103,10 +2111,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" t="s">
         <v>206</v>
-      </c>
-      <c r="B104" t="s">
-        <v>207</v>
       </c>
       <c r="C104">
         <f>0</f>
@@ -2114,7 +2122,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
         <v>208</v>
@@ -2136,10 +2144,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" t="s">
         <v>211</v>
-      </c>
-      <c r="B107" t="s">
-        <v>212</v>
       </c>
       <c r="C107">
         <f>0</f>
@@ -2147,10 +2155,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
         <v>213</v>
-      </c>
-      <c r="B108" t="s">
-        <v>214</v>
       </c>
       <c r="C108">
         <f>0</f>
@@ -2158,10 +2166,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" t="s">
         <v>215</v>
-      </c>
-      <c r="B109" t="s">
-        <v>216</v>
       </c>
       <c r="C109">
         <f>0</f>
@@ -2169,10 +2177,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s">
         <v>217</v>
-      </c>
-      <c r="B110" t="s">
-        <v>218</v>
       </c>
       <c r="C110">
         <f>0</f>
@@ -2180,10 +2188,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" t="s">
         <v>219</v>
-      </c>
-      <c r="B111" t="s">
-        <v>220</v>
       </c>
       <c r="C111">
         <f>0</f>
@@ -2191,10 +2199,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" t="s">
         <v>221</v>
-      </c>
-      <c r="B112" t="s">
-        <v>222</v>
       </c>
       <c r="C112">
         <f>0</f>
@@ -2202,10 +2210,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" t="s">
         <v>223</v>
-      </c>
-      <c r="B113" t="s">
-        <v>224</v>
       </c>
       <c r="C113">
         <f>0</f>
@@ -2213,10 +2221,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" t="s">
         <v>225</v>
-      </c>
-      <c r="B114" t="s">
-        <v>226</v>
       </c>
       <c r="C114">
         <f>0</f>
@@ -2224,10 +2232,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" t="s">
         <v>227</v>
-      </c>
-      <c r="B115" t="s">
-        <v>228</v>
       </c>
       <c r="C115">
         <f>0</f>
@@ -2235,10 +2243,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" t="s">
         <v>229</v>
-      </c>
-      <c r="B116" t="s">
-        <v>230</v>
       </c>
       <c r="C116">
         <f>0</f>
@@ -2246,10 +2254,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" t="s">
         <v>231</v>
-      </c>
-      <c r="B117" t="s">
-        <v>232</v>
       </c>
       <c r="C117">
         <f>0</f>
@@ -2257,10 +2265,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
         <v>233</v>
-      </c>
-      <c r="B118" t="s">
-        <v>234</v>
       </c>
       <c r="C118">
         <f>0</f>
@@ -2268,10 +2276,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" t="s">
         <v>235</v>
-      </c>
-      <c r="B119" t="s">
-        <v>236</v>
       </c>
       <c r="C119">
         <f>0</f>
@@ -2279,7 +2287,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B120" t="s">
         <v>237</v>
@@ -2323,10 +2331,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" t="s">
         <v>244</v>
-      </c>
-      <c r="B124" t="s">
-        <v>245</v>
       </c>
       <c r="C124">
         <f>0</f>
@@ -2334,10 +2342,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" t="s">
         <v>246</v>
-      </c>
-      <c r="B125" t="s">
-        <v>247</v>
       </c>
       <c r="C125">
         <f>0</f>
@@ -2345,10 +2353,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" t="s">
         <v>248</v>
-      </c>
-      <c r="B126" t="s">
-        <v>249</v>
       </c>
       <c r="C126">
         <f>0</f>
@@ -2356,10 +2364,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" t="s">
         <v>250</v>
-      </c>
-      <c r="B127" t="s">
-        <v>251</v>
       </c>
       <c r="C127">
         <f>0</f>
@@ -2367,10 +2375,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" t="s">
         <v>252</v>
-      </c>
-      <c r="B128" t="s">
-        <v>253</v>
       </c>
       <c r="C128">
         <f>0</f>
@@ -2378,10 +2386,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" t="s">
         <v>254</v>
-      </c>
-      <c r="B129" t="s">
-        <v>255</v>
       </c>
       <c r="C129">
         <f>0</f>
@@ -2389,10 +2397,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" t="s">
         <v>256</v>
-      </c>
-      <c r="B130" t="s">
-        <v>257</v>
       </c>
       <c r="C130">
         <f>0</f>
@@ -2400,10 +2408,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" t="s">
         <v>258</v>
-      </c>
-      <c r="B131" t="s">
-        <v>259</v>
       </c>
       <c r="C131">
         <f>0</f>
@@ -2411,10 +2419,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" t="s">
         <v>260</v>
-      </c>
-      <c r="B132" t="s">
-        <v>261</v>
       </c>
       <c r="C132">
         <f>0</f>
@@ -2422,10 +2430,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" t="s">
         <v>262</v>
-      </c>
-      <c r="B133" t="s">
-        <v>263</v>
       </c>
       <c r="C133">
         <f>0</f>
@@ -2433,10 +2441,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" t="s">
         <v>264</v>
-      </c>
-      <c r="B134" t="s">
-        <v>265</v>
       </c>
       <c r="C134">
         <f>0</f>
@@ -2444,10 +2452,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" t="s">
         <v>266</v>
-      </c>
-      <c r="B135" t="s">
-        <v>267</v>
       </c>
       <c r="C135">
         <f>0</f>
@@ -2455,10 +2463,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" t="s">
         <v>268</v>
-      </c>
-      <c r="B136" t="s">
-        <v>269</v>
       </c>
       <c r="C136">
         <f>0</f>
@@ -2466,10 +2474,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" t="s">
         <v>270</v>
-      </c>
-      <c r="B137" t="s">
-        <v>271</v>
       </c>
       <c r="C137">
         <f>0</f>
@@ -2477,10 +2485,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" t="s">
         <v>272</v>
-      </c>
-      <c r="B138" t="s">
-        <v>273</v>
       </c>
       <c r="C138">
         <f>0</f>
@@ -2488,10 +2496,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" t="s">
         <v>274</v>
-      </c>
-      <c r="B139" t="s">
-        <v>275</v>
       </c>
       <c r="C139">
         <f>0</f>
@@ -2499,10 +2507,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" t="s">
         <v>276</v>
-      </c>
-      <c r="B140" t="s">
-        <v>277</v>
       </c>
       <c r="C140">
         <f>0</f>
@@ -2510,10 +2518,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" t="s">
         <v>278</v>
-      </c>
-      <c r="B141" t="s">
-        <v>279</v>
       </c>
       <c r="C141">
         <f>0</f>
@@ -2521,10 +2529,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" t="s">
         <v>280</v>
-      </c>
-      <c r="B142" t="s">
-        <v>281</v>
       </c>
       <c r="C142">
         <f>0</f>
@@ -2532,10 +2540,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" t="s">
         <v>282</v>
-      </c>
-      <c r="B143" t="s">
-        <v>283</v>
       </c>
       <c r="C143">
         <f>0</f>
@@ -2543,10 +2551,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" t="s">
         <v>284</v>
-      </c>
-      <c r="B144" t="s">
-        <v>285</v>
       </c>
       <c r="C144">
         <f>0</f>
@@ -2554,10 +2562,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" t="s">
         <v>286</v>
-      </c>
-      <c r="B145" t="s">
-        <v>287</v>
       </c>
       <c r="C145">
         <f>0</f>
@@ -2565,21 +2573,16 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>288</v>
-      </c>
-      <c r="B146" t="s">
-        <v>289</v>
-      </c>
-      <c r="C146">
-        <f>0</f>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C147">
         <f>0</f>
@@ -2587,10 +2590,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C148">
         <f>0</f>
@@ -2598,10 +2601,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C149">
         <f>0</f>
@@ -2609,10 +2612,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C150">
         <f>0</f>
@@ -2620,10 +2623,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C151">
         <f>0</f>
@@ -2631,31 +2634,44 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" t="s">
+        <v>299</v>
+      </c>
+      <c r="C152">
+        <f>0</f>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
         <v>300</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
         <v>301</v>
       </c>
-      <c r="C152">
-        <f>0</f>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153"/>
-      <c r="B153"/>
-    </row>
-    <row r="154">
-      <c r="A154"/>
-      <c r="B154"/>
+      <c r="B154" t="s">
+        <v>302</v>
+      </c>
+      <c r="C154">
+        <f>0</f>
+      </c>
     </row>
     <row r="155">
-      <c r="A155"/>
-      <c r="B155"/>
-    </row>
-    <row r="156">
-      <c r="A156"/>
-      <c r="B156"/>
-    </row>
+      <c r="A155" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155">
+        <f>0</f>
+      </c>
+    </row>
+    <row r="156"/>
     <row r="157">
       <c r="A157"/>
       <c r="B157"/>
@@ -2731,6 +2747,9 @@
     <row r="175">
       <c r="A175"/>
       <c r="B175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
     </row>
     <row r="176">
       <c r="A176"/>
@@ -2783,6 +2802,9 @@
     <row r="188">
       <c r="A188"/>
       <c r="B188"/>
+      <c r="F188" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189"/>
@@ -6031,6 +6053,14 @@
     <row r="1000">
       <c r="A1000"/>
       <c r="B1000"/>
+    </row>
+    <row r="1001">
+      <c r="A1001"/>
+      <c r="B1001"/>
+    </row>
+    <row r="1002">
+      <c r="A1002"/>
+      <c r="B1002"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
